--- a/data/trans_bre/MCS12_SP_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.371602630664573</v>
+        <v>2.447350365462154</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.765348198727409</v>
+        <v>-2.613914945200623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.15965116699308</v>
+        <v>-3.300982444582898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.956401024969932</v>
+        <v>4.486940269329493</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1517550992838763</v>
+        <v>0.1734473537042953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1526911722116331</v>
+        <v>-0.1547130651756964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2357057322441916</v>
+        <v>-0.2528980624633205</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2773406893047416</v>
+        <v>0.2470733202307056</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.45419321866704</v>
+        <v>11.57163767683138</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.154137472398446</v>
+        <v>7.713475094965067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.80163633533587</v>
+        <v>5.836632990895223</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.11162471722707</v>
+        <v>18.70579273072531</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.207955983119821</v>
+        <v>1.247979378462639</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5242274235545895</v>
+        <v>0.5600486050550646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6485699954543918</v>
+        <v>0.6666184835862088</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.480325671426414</v>
+        <v>3.224465676633045</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.217937883150367</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.43531767116149</v>
+        <v>7.435317671161487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6405185557124252</v>
@@ -749,7 +749,7 @@
         <v>0.1444260779556476</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5803571698560936</v>
+        <v>0.5803571698560934</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.985407861732313</v>
+        <v>4.521318711534491</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2621529275593495</v>
+        <v>0.429231176799428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.307415462892255</v>
+        <v>-2.222689589033226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.303313353766259</v>
+        <v>1.756345875114858</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2609412477173608</v>
+        <v>0.3003462441528365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0131725267256682</v>
+        <v>0.03138204813059615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1307626362528305</v>
+        <v>-0.1328168742046299</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1209125231244064</v>
+        <v>0.1009718407748266</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.26727797557082</v>
+        <v>13.0356720321948</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.392955757884884</v>
+        <v>9.077832342064184</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.4929221103217</v>
+        <v>6.358625522471087</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.34244783832053</v>
+        <v>12.65853033787012</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.11505542229902</v>
+        <v>1.136245977682465</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5869117368956394</v>
+        <v>0.5758896222749731</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4877763310904006</v>
+        <v>0.4756965357994699</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.310681754897359</v>
+        <v>1.281534174426099</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.670508727686546</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.883872185441317</v>
+        <v>3.88387218544132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.178457703562358</v>
@@ -849,7 +849,7 @@
         <v>0.2634935888028579</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2255655030605421</v>
+        <v>0.2255655030605423</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8072345588588914</v>
+        <v>-0.697499890856646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.897479238477294</v>
+        <v>4.628793642781077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2484200909542476</v>
+        <v>0.5638219378467474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7814860908404808</v>
+        <v>-0.5255268975176909</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03443301329324142</v>
+        <v>-0.0296193716373107</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1913927738598296</v>
+        <v>0.1765319338740225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01140958330967723</v>
+        <v>0.03176580106034058</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04153652353967445</v>
+        <v>-0.0277189233613001</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.572426264288747</v>
+        <v>8.544811451205449</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.56461569270103</v>
+        <v>14.90528340134267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.390285627722188</v>
+        <v>9.472297181026454</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.927167566346938</v>
+        <v>7.820824732704497</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.456186630777441</v>
+        <v>0.4641227586898662</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7052498532924287</v>
+        <v>0.7132041812350348</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6096615402759693</v>
+        <v>0.6091782800903873</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.538219374217966</v>
+        <v>0.533650107613636</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.450132423909603</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.415213138591119</v>
+        <v>5.415213138591116</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8211495552357352</v>
@@ -949,7 +949,7 @@
         <v>0.324880137947913</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2576265766124707</v>
+        <v>0.2576265766124705</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.834853408477166</v>
+        <v>8.883772046708122</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.08390666431219</v>
+        <v>7.418735154730221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.06051893051502</v>
+        <v>2.024623902725164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.275944089846964</v>
+        <v>1.404322536739527</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4526447539668373</v>
+        <v>0.4235425850092935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3182162149353698</v>
+        <v>0.2883695715053646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08163253798239409</v>
+        <v>0.07012655525215344</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04933260644429905</v>
+        <v>0.05783948894392286</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>19.3924888976703</v>
+        <v>19.28792949175709</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.85265198103449</v>
+        <v>18.31863952402566</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.42978445961178</v>
+        <v>12.64721104128182</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.607938620675856</v>
+        <v>9.655458035003745</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.351496650765795</v>
+        <v>1.31370743312637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9366287730539646</v>
+        <v>0.9234113161777785</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6005537177043323</v>
+        <v>0.5995882461081603</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5195163139065428</v>
+        <v>0.5267430442902493</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>12.22072960990497</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.972253697830048</v>
+        <v>7.972253697830037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3119934123578806</v>
@@ -1049,7 +1049,7 @@
         <v>0.5699566792454408</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3350806884370252</v>
+        <v>0.3350806884370247</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.78199680837746</v>
+        <v>1.455786550483041</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.016014666352539</v>
+        <v>5.987291746974021</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.958165955022888</v>
+        <v>5.778234442650556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.837205264470111</v>
+        <v>3.571420733917137</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01707652703014498</v>
+        <v>0.04698844704194307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2035680433448501</v>
+        <v>0.2059394273372285</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2346073522597039</v>
+        <v>0.2302577420731152</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1494636882186754</v>
+        <v>0.1360928052646089</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.03610602130972</v>
+        <v>13.8315635764972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.88851799669175</v>
+        <v>19.67844996176467</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.18029552990314</v>
+        <v>17.58132405544012</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.62830226511638</v>
+        <v>12.20853010197403</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6193524369989845</v>
+        <v>0.6291188386749315</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8033717349609006</v>
+        <v>0.8494186250460593</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9603299786681133</v>
+        <v>0.9415657414152865</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6060880526042033</v>
+        <v>0.5817589566097078</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.009034019018793</v>
+        <v>-3.14600440445733</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.797338844737506</v>
+        <v>3.78597475118265</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.66805127425742</v>
+        <v>9.759028492680812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.930223716235648</v>
+        <v>2.930945572024575</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09979296230711449</v>
+        <v>-0.1057927541182302</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1587667885939787</v>
+        <v>0.1241254631433164</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4901432260498552</v>
+        <v>0.4340858752019856</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1057174380373303</v>
+        <v>0.1096847299184721</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.4981140353315</v>
+        <v>10.59494319467262</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.69247291389018</v>
+        <v>18.55740320919798</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.1951947467769</v>
+        <v>23.21213323677501</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.41077961024609</v>
+        <v>12.43184773764996</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4789737075378763</v>
+        <v>0.444177217065708</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8883042217391773</v>
+        <v>0.8589658627488992</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.528056162236857</v>
+        <v>1.551191575895145</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5679828853784769</v>
+        <v>0.570234626029353</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.956099898542207</v>
+        <v>-3.126582601744137</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.415847612616281</v>
+        <v>6.470215733149634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.280434320951022</v>
+        <v>2.119626469206769</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.540265136786653</v>
+        <v>5.771216258410185</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.08739519152857587</v>
+        <v>-0.09555852459542231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1710735197971031</v>
+        <v>0.1717134628546098</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1050914407704676</v>
+        <v>0.06350301980754552</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1541479856589005</v>
+        <v>0.16179894510038</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.25469723582853</v>
+        <v>13.37505991180382</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.47076495955378</v>
+        <v>22.38565619774333</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.11285388912048</v>
+        <v>18.5512546070098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.6732467786012</v>
+        <v>17.18180518902484</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5977265269206633</v>
+        <v>0.6129421603874518</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.839639964947417</v>
+        <v>0.8477812843968183</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7565714607868126</v>
+        <v>0.7382543602731604</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5760306103019214</v>
+        <v>0.6169712716154042</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>7.912548894577679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8.111340538362018</v>
+        <v>8.111340538362017</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4247794081696776</v>
@@ -1349,7 +1349,7 @@
         <v>0.4195092813502437</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4126156965623948</v>
+        <v>0.4126156965623946</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>6.050017222940678</v>
+        <v>5.724462077078582</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.384628641114118</v>
+        <v>8.268148374944792</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.689328416125558</v>
+        <v>5.8114887715644</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.177423812842616</v>
+        <v>6.10525232304289</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3076922461266403</v>
+        <v>0.2957828573757993</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3590280488103464</v>
+        <v>0.3586824462692156</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2840650311185055</v>
+        <v>0.2933181176964981</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2967137624895722</v>
+        <v>0.2942518601644283</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.992588226256119</v>
+        <v>9.916639773541922</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.78927471477439</v>
+        <v>12.55324189040538</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.795778703046087</v>
+        <v>9.996641981189109</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.05029369490251</v>
+        <v>10.03296606875853</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5685594910138259</v>
+        <v>0.5708221697932828</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5975998306837175</v>
+        <v>0.5914786756200353</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5552152658278421</v>
+        <v>0.5548894353969893</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5394217818318021</v>
+        <v>0.5393168320784444</v>
       </c>
     </row>
     <row r="28">
